--- a/config/forms/contact/cases_group-edit.xlsx
+++ b/config/forms/contact/cases_group-edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C8CE63-C1F6-4A1D-B1FD-44593E0258AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B257D3-FCB7-46B0-B07D-DCA8715333F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7767" uniqueCount="1960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7771" uniqueCount="1961">
   <si>
     <t>type</t>
   </si>
@@ -5918,6 +5918,9 @@
   </si>
   <si>
     <t>Disease name</t>
+  </si>
+  <si>
+    <t>../../cases_group/outbreak_location/outbreak/disease_name</t>
   </si>
 </sst>
 </file>
@@ -6291,14 +6294,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N967"/>
+  <dimension ref="A1:N968"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C2" sqref="C2"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6505,13 +6508,13 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>1938</v>
+        <v>1958</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="J14" t="s">
-        <v>1939</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6519,108 +6522,111 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="J15" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
         <v>1941</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:10" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
-        <v>1942</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>1943</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>1955</v>
-      </c>
-    </row>
+    <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="1:10" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>1942</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>1943</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>1944</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>1945</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:10" s="12" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:10" s="12" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B21" s="12" t="s">
         <v>1946</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C21" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F21" s="12" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>1947</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>1948</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>1949</v>
-      </c>
-      <c r="G21" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>1950</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>1948</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>1949</v>
+      </c>
+      <c r="G22" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B23" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C23" s="13" t="s">
         <v>1934</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:10" s="12" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:10" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:10" s="12" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B25" s="12" t="s">
         <v>1951</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F25" s="12" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>1934</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -6628,40 +6634,43 @@
         <v>27</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>1952</v>
+        <v>1</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>1953</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>1956</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>1957</v>
+      <c r="B27" s="13" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>1953</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>1958</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C29" s="16" t="s">
         <v>1959</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="12" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>1951</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="12" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -6669,48 +6678,45 @@
         <v>24</v>
       </c>
       <c r="B30" s="12" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="12" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>1946</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="32" spans="1:10" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>18</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>1</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>1954</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:10" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:10" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B35" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C35" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F35" s="9" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6718,10 +6724,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6729,15 +6735,21 @@
         <v>28</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="J38" s="8" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6745,7 +6757,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="1:10" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7673,6 +7689,7 @@
     <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -36453,7 +36470,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2024-01-22 11-09</v>
+        <v>2024-01-26 15-56</v>
       </c>
       <c r="D2" t="s">
         <v>47</v>
